--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H2">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I2">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J2">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.94473098323928</v>
+        <v>0.096929</v>
       </c>
       <c r="N2">
-        <v>3.94473098323928</v>
+        <v>0.290787</v>
       </c>
       <c r="O2">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="P2">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="Q2">
-        <v>56.32507648444061</v>
+        <v>1.531269964198334</v>
       </c>
       <c r="R2">
-        <v>56.32507648444061</v>
+        <v>13.781429677785</v>
       </c>
       <c r="S2">
-        <v>0.1087568860809495</v>
+        <v>0.002805127863608765</v>
       </c>
       <c r="T2">
-        <v>0.1087568860809495</v>
+        <v>0.002805127863608765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H3">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I3">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J3">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.938096538949388</v>
+        <v>3.954952666666667</v>
       </c>
       <c r="N3">
-        <v>0.938096538949388</v>
+        <v>11.864858</v>
       </c>
       <c r="O3">
-        <v>0.1921215801062942</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="P3">
-        <v>0.1921215801062942</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="Q3">
-        <v>13.39466735009753</v>
+        <v>62.47975557668779</v>
       </c>
       <c r="R3">
-        <v>13.39466735009753</v>
+        <v>562.31780019019</v>
       </c>
       <c r="S3">
-        <v>0.02586347683858344</v>
+        <v>0.1144564364072718</v>
       </c>
       <c r="T3">
-        <v>0.02586347683858344</v>
+        <v>0.1144564364072719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.67403831337469</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H4">
-        <v>73.67403831337469</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I4">
-        <v>0.694609683840642</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J4">
-        <v>0.694609683840642</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.94473098323928</v>
+        <v>0.9438210000000001</v>
       </c>
       <c r="N4">
-        <v>3.94473098323928</v>
+        <v>2.831463</v>
       </c>
       <c r="O4">
-        <v>0.8078784198937058</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="P4">
-        <v>0.8078784198937058</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="Q4">
-        <v>290.6242615951269</v>
+        <v>14.910344157885</v>
       </c>
       <c r="R4">
-        <v>290.6242615951269</v>
+        <v>134.193097420965</v>
       </c>
       <c r="S4">
-        <v>0.5611601738240445</v>
+        <v>0.02731420509196513</v>
       </c>
       <c r="T4">
-        <v>0.5611601738240445</v>
+        <v>0.02731420509196513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H5">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I5">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J5">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.938096538949388</v>
+        <v>0.096929</v>
       </c>
       <c r="N5">
-        <v>0.938096538949388</v>
+        <v>0.290787</v>
       </c>
       <c r="O5">
-        <v>0.1921215801062942</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="P5">
-        <v>0.1921215801062942</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="Q5">
-        <v>69.11336035220141</v>
+        <v>7.211174115933667</v>
       </c>
       <c r="R5">
-        <v>69.11336035220141</v>
+        <v>64.900567043403</v>
       </c>
       <c r="S5">
-        <v>0.1334495100165976</v>
+        <v>0.01321012356729007</v>
       </c>
       <c r="T5">
-        <v>0.1334495100165976</v>
+        <v>0.01321012356729007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.8452094997702</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H6">
-        <v>15.8452094997702</v>
+        <v>223.189369</v>
       </c>
       <c r="I6">
-        <v>0.1493909688268854</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J6">
-        <v>0.1493909688268854</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.94473098323928</v>
+        <v>3.954952666666667</v>
       </c>
       <c r="N6">
-        <v>3.94473098323928</v>
+        <v>11.864858</v>
       </c>
       <c r="O6">
-        <v>0.8078784198937058</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="P6">
-        <v>0.8078784198937058</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="Q6">
-        <v>62.50508884966089</v>
+        <v>294.2344633660669</v>
       </c>
       <c r="R6">
-        <v>62.50508884966089</v>
+        <v>2648.110170294602</v>
       </c>
       <c r="S6">
-        <v>0.120689739842254</v>
+        <v>0.539007040508517</v>
       </c>
       <c r="T6">
-        <v>0.120689739842254</v>
+        <v>0.539007040508517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.8452094997702</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H7">
-        <v>15.8452094997702</v>
+        <v>223.189369</v>
       </c>
       <c r="I7">
-        <v>0.1493909688268854</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J7">
-        <v>0.1493909688268854</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.938096538949388</v>
+        <v>0.9438210000000001</v>
       </c>
       <c r="N7">
-        <v>0.938096538949388</v>
+        <v>2.831463</v>
       </c>
       <c r="O7">
-        <v>0.1921215801062942</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="P7">
-        <v>0.1921215801062942</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="Q7">
-        <v>14.86433619066239</v>
+        <v>70.21693781298301</v>
       </c>
       <c r="R7">
-        <v>14.86433619066239</v>
+        <v>631.9524403168471</v>
       </c>
       <c r="S7">
-        <v>0.02870122898463135</v>
+        <v>0.1286301523321532</v>
       </c>
       <c r="T7">
-        <v>0.02870122898463135</v>
+        <v>0.1286301523321532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.26757005176063</v>
+        <v>16.36992</v>
       </c>
       <c r="H8">
-        <v>2.26757005176063</v>
+        <v>49.10976</v>
       </c>
       <c r="I8">
-        <v>0.02137898441293969</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J8">
-        <v>0.02137898441293969</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.94473098323928</v>
+        <v>0.096929</v>
       </c>
       <c r="N8">
-        <v>3.94473098323928</v>
+        <v>0.290787</v>
       </c>
       <c r="O8">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="P8">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="Q8">
-        <v>8.944953839845656</v>
+        <v>1.58671997568</v>
       </c>
       <c r="R8">
-        <v>8.944953839845656</v>
+        <v>14.28047978112</v>
       </c>
       <c r="S8">
-        <v>0.01727162014645789</v>
+        <v>0.002906706537442467</v>
       </c>
       <c r="T8">
-        <v>0.01727162014645789</v>
+        <v>0.002906706537442467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.36992</v>
+      </c>
+      <c r="H9">
+        <v>49.10976</v>
+      </c>
+      <c r="I9">
+        <v>0.1498111153557632</v>
+      </c>
+      <c r="J9">
+        <v>0.1498111153557632</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.954952666666667</v>
+      </c>
+      <c r="N9">
+        <v>11.864858</v>
+      </c>
+      <c r="O9">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="P9">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="Q9">
+        <v>64.74225875712</v>
+      </c>
+      <c r="R9">
+        <v>582.68032881408</v>
+      </c>
+      <c r="S9">
+        <v>0.1186011077332431</v>
+      </c>
+      <c r="T9">
+        <v>0.1186011077332431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.26757005176063</v>
-      </c>
-      <c r="H9">
-        <v>2.26757005176063</v>
-      </c>
-      <c r="I9">
-        <v>0.02137898441293969</v>
-      </c>
-      <c r="J9">
-        <v>0.02137898441293969</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.938096538949388</v>
-      </c>
-      <c r="N9">
-        <v>0.938096538949388</v>
-      </c>
-      <c r="O9">
-        <v>0.1921215801062942</v>
-      </c>
-      <c r="P9">
-        <v>0.1921215801062942</v>
-      </c>
-      <c r="Q9">
-        <v>2.127199617381932</v>
-      </c>
-      <c r="R9">
-        <v>2.127199617381932</v>
-      </c>
-      <c r="S9">
-        <v>0.004107364266481808</v>
-      </c>
-      <c r="T9">
-        <v>0.004107364266481808</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.36992</v>
+      </c>
+      <c r="H10">
+        <v>49.10976</v>
+      </c>
+      <c r="I10">
+        <v>0.1498111153557632</v>
+      </c>
+      <c r="J10">
+        <v>0.1498111153557632</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9438210000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.831463</v>
+      </c>
+      <c r="O10">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="P10">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="Q10">
+        <v>15.45027426432</v>
+      </c>
+      <c r="R10">
+        <v>139.05246837888</v>
+      </c>
+      <c r="S10">
+        <v>0.02830330108507761</v>
+      </c>
+      <c r="T10">
+        <v>0.02830330108507761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.706168666666667</v>
+      </c>
+      <c r="H11">
+        <v>8.118506</v>
+      </c>
+      <c r="I11">
+        <v>0.02476579887343077</v>
+      </c>
+      <c r="J11">
+        <v>0.02476579887343077</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.096929</v>
+      </c>
+      <c r="N11">
+        <v>0.290787</v>
+      </c>
+      <c r="O11">
+        <v>0.01940247578118474</v>
+      </c>
+      <c r="P11">
+        <v>0.01940247578118474</v>
+      </c>
+      <c r="Q11">
+        <v>0.2623062226913334</v>
+      </c>
+      <c r="R11">
+        <v>2.360756004222</v>
+      </c>
+      <c r="S11">
+        <v>0.0004805178128434327</v>
+      </c>
+      <c r="T11">
+        <v>0.0004805178128434327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.706168666666667</v>
+      </c>
+      <c r="H12">
+        <v>8.118506</v>
+      </c>
+      <c r="I12">
+        <v>0.02476579887343077</v>
+      </c>
+      <c r="J12">
+        <v>0.02476579887343077</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.954952666666667</v>
+      </c>
+      <c r="N12">
+        <v>11.864858</v>
+      </c>
+      <c r="O12">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="P12">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="Q12">
+        <v>10.70276898468311</v>
+      </c>
+      <c r="R12">
+        <v>96.32492086214801</v>
+      </c>
+      <c r="S12">
+        <v>0.01960636347518254</v>
+      </c>
+      <c r="T12">
+        <v>0.01960636347518254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.706168666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.118506</v>
+      </c>
+      <c r="I13">
+        <v>0.02476579887343077</v>
+      </c>
+      <c r="J13">
+        <v>0.02476579887343077</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9438210000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.831463</v>
+      </c>
+      <c r="O13">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="P13">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="Q13">
+        <v>2.554138817142</v>
+      </c>
+      <c r="R13">
+        <v>22.987249354278</v>
+      </c>
+      <c r="S13">
+        <v>0.004678917585404797</v>
+      </c>
+      <c r="T13">
+        <v>0.004678917585404797</v>
       </c>
     </row>
   </sheetData>
